--- a/Data/Modeling Stage/Results/R_Gonz/Non temporal models/simple_models_results_Date_threshold_33_30_replicas_no_assign.xlsx
+++ b/Data/Modeling Stage/Results/R_Gonz/Non temporal models/simple_models_results_Date_threshold_33_30_replicas_no_assign.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="327">
   <si>
     <t>Baseline - Majority Class</t>
   </si>
@@ -113,499 +113,511 @@
     <t>0.5</t>
   </si>
   <si>
+    <t>0.001+/-0.001</t>
+  </si>
+  <si>
+    <t>0.983+/-0.002</t>
+  </si>
+  <si>
+    <t>0.71+/-0.0</t>
+  </si>
+  <si>
+    <t>0.714</t>
+  </si>
+  <si>
+    <t>0.99+/-0.02</t>
+  </si>
+  <si>
+    <t>0.649+/-0.024</t>
+  </si>
+  <si>
+    <t>0.657</t>
+  </si>
+  <si>
+    <t>0.966+/-0.015</t>
+  </si>
+  <si>
+    <t>0.525+/-0.029</t>
+  </si>
+  <si>
+    <t>0.521</t>
+  </si>
+  <si>
+    <t>0.999+/-0.0</t>
+  </si>
+  <si>
+    <t>0.754+/-0.015</t>
+  </si>
+  <si>
+    <t>0.754</t>
+  </si>
+  <si>
+    <t>0.004+/-0.003</t>
+  </si>
+  <si>
+    <t>0.628+/-0.002</t>
+  </si>
+  <si>
+    <t>0.626+/-0.0</t>
+  </si>
+  <si>
+    <t>0.63</t>
+  </si>
+  <si>
+    <t>0.555+/-0.013</t>
+  </si>
+  <si>
+    <t>0.543+/-0.055</t>
+  </si>
+  <si>
+    <t>0.571</t>
+  </si>
+  <si>
+    <t>0.114+/-0.016</t>
+  </si>
+  <si>
+    <t>0.112+/-0.022</t>
+  </si>
+  <si>
+    <t>0.118</t>
+  </si>
+  <si>
+    <t>0.65+/-0.003</t>
+  </si>
+  <si>
+    <t>0.644+/-0.016</t>
+  </si>
+  <si>
+    <t>0.644</t>
+  </si>
+  <si>
+    <t>0.225+/-0.025</t>
+  </si>
+  <si>
+    <t>0.502+/-0.01</t>
+  </si>
+  <si>
+    <t>0.501+/-0.0</t>
+  </si>
+  <si>
+    <t>0.499</t>
+  </si>
+  <si>
+    <t>0.418+/-0.004</t>
+  </si>
+  <si>
+    <t>0.417+/-0.011</t>
+  </si>
+  <si>
+    <t>0.415</t>
+  </si>
+  <si>
+    <t>0.781+/-0.019</t>
+  </si>
+  <si>
+    <t>0.78+/-0.027</t>
+  </si>
+  <si>
+    <t>0.768</t>
+  </si>
+  <si>
+    <t>0.599+/-0.005</t>
+  </si>
+  <si>
+    <t>0.596+/-0.019</t>
+  </si>
+  <si>
+    <t>0.588</t>
+  </si>
+  <si>
+    <t>0.009+/-0.001</t>
+  </si>
+  <si>
+    <t>0.615+/-0.004</t>
+  </si>
+  <si>
+    <t>0.613+/-0.0</t>
+  </si>
+  <si>
+    <t>0.617</t>
+  </si>
+  <si>
+    <t>0.495+/-0.005</t>
+  </si>
+  <si>
+    <t>0.493+/-0.021</t>
+  </si>
+  <si>
+    <t>0.497</t>
+  </si>
+  <si>
+    <t>0.468+/-0.023</t>
+  </si>
+  <si>
+    <t>0.465+/-0.027</t>
+  </si>
+  <si>
+    <t>0.451</t>
+  </si>
+  <si>
+    <t>0.63+/-0.003</t>
+  </si>
+  <si>
+    <t>0.628+/-0.018</t>
+  </si>
+  <si>
+    <t>0.634</t>
+  </si>
+  <si>
+    <t>0.011+/-0.002</t>
+  </si>
+  <si>
+    <t>0.78+/-0.007</t>
+  </si>
+  <si>
+    <t>0.737+/-0.0</t>
+  </si>
+  <si>
+    <t>0.741</t>
+  </si>
+  <si>
+    <t>0.782+/-0.033</t>
+  </si>
+  <si>
+    <t>0.707+/-0.036</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>0.592+/-0.046</t>
+  </si>
+  <si>
+    <t>0.535+/-0.051</t>
+  </si>
+  <si>
+    <t>0.56</t>
+  </si>
+  <si>
+    <t>0.854+/-0.007</t>
+  </si>
+  <si>
+    <t>0.789+/-0.014</t>
+  </si>
+  <si>
+    <t>0.79</t>
+  </si>
+  <si>
+    <t>8.706+/-4.645</t>
+  </si>
+  <si>
+    <t>0.785+/-0.011</t>
+  </si>
+  <si>
+    <t>0.703+/-0.0</t>
+  </si>
+  <si>
+    <t>0.699</t>
+  </si>
+  <si>
+    <t>0.783+/-0.025</t>
+  </si>
+  <si>
+    <t>0.644+/-0.025</t>
+  </si>
+  <si>
+    <t>0.624</t>
+  </si>
+  <si>
+    <t>0.605+/-0.035</t>
+  </si>
+  <si>
+    <t>0.496+/-0.04</t>
+  </si>
+  <si>
+    <t>0.53</t>
+  </si>
+  <si>
+    <t>0.861+/-0.011</t>
+  </si>
+  <si>
+    <t>0.727+/-0.016</t>
+  </si>
+  <si>
+    <t>0.727</t>
+  </si>
+  <si>
+    <t>0.19+/-0.036</t>
+  </si>
+  <si>
+    <t>0.774+/-0.01</t>
+  </si>
+  <si>
+    <t>0.704+/-0.0</t>
+  </si>
+  <si>
+    <t>0.705</t>
+  </si>
+  <si>
+    <t>0.771+/-0.023</t>
+  </si>
+  <si>
+    <t>0.648+/-0.026</t>
+  </si>
+  <si>
+    <t>0.636</t>
+  </si>
+  <si>
+    <t>0.582+/-0.037</t>
+  </si>
+  <si>
+    <t>0.489+/-0.041</t>
+  </si>
+  <si>
+    <t>0.527</t>
+  </si>
+  <si>
+    <t>0.853+/-0.011</t>
+  </si>
+  <si>
+    <t>0.731+/-0.016</t>
+  </si>
+  <si>
+    <t>0.738</t>
+  </si>
+  <si>
+    <t>0.262+/-0.032</t>
+  </si>
+  <si>
+    <t>0.704+/-0.003</t>
+  </si>
+  <si>
+    <t>0.684+/-0.0</t>
+  </si>
+  <si>
+    <t>0.69</t>
+  </si>
+  <si>
+    <t>0.802+/-0.012</t>
+  </si>
+  <si>
+    <t>0.742+/-0.036</t>
+  </si>
+  <si>
+    <t>0.746</t>
+  </si>
+  <si>
+    <t>0.295+/-0.013</t>
+  </si>
+  <si>
+    <t>0.261+/-0.023</t>
+  </si>
+  <si>
+    <t>0.283</t>
+  </si>
+  <si>
+    <t>0.773+/-0.004</t>
+  </si>
+  <si>
+    <t>0.727+/-0.015</t>
+  </si>
+  <si>
+    <t>0.722</t>
+  </si>
+  <si>
+    <t>47.696+/-3.025</t>
+  </si>
+  <si>
+    <t>0.831+/-0.002</t>
+  </si>
+  <si>
+    <t>0.754+/-0.0</t>
+  </si>
+  <si>
+    <t>0.749</t>
+  </si>
+  <si>
+    <t>0.923+/-0.006</t>
+  </si>
+  <si>
+    <t>0.8+/-0.023</t>
+  </si>
+  <si>
+    <t>0.777</t>
+  </si>
+  <si>
+    <t>0.606+/-0.007</t>
+  </si>
+  <si>
+    <t>0.474+/-0.023</t>
+  </si>
+  <si>
+    <t>0.478</t>
+  </si>
+  <si>
+    <t>0.921+/-0.002</t>
+  </si>
+  <si>
+    <t>0.805+/-0.013</t>
+  </si>
+  <si>
+    <t>0.802</t>
+  </si>
+  <si>
+    <t>11.249+/-0.608</t>
+  </si>
+  <si>
+    <t>0.691+/-0.003</t>
+  </si>
+  <si>
+    <t>0.674+/-0.0</t>
+  </si>
+  <si>
+    <t>0.681</t>
+  </si>
+  <si>
+    <t>0.659+/-0.007</t>
+  </si>
+  <si>
+    <t>0.621+/-0.027</t>
+  </si>
+  <si>
+    <t>0.391+/-0.01</t>
+  </si>
+  <si>
+    <t>0.37+/-0.022</t>
+  </si>
+  <si>
+    <t>0.379</t>
+  </si>
+  <si>
+    <t>0.728+/-0.003</t>
+  </si>
+  <si>
+    <t>0.7+/-0.016</t>
+  </si>
+  <si>
+    <t>0.698</t>
+  </si>
+  <si>
+    <t>2.27+/-0.916</t>
+  </si>
+  <si>
+    <t>0.784+/-0.003</t>
+  </si>
+  <si>
+    <t>0.743+/-0.0</t>
+  </si>
+  <si>
+    <t>0.752</t>
+  </si>
+  <si>
+    <t>0.815+/-0.006</t>
+  </si>
+  <si>
+    <t>0.741+/-0.023</t>
+  </si>
+  <si>
+    <t>0.745</t>
+  </si>
+  <si>
+    <t>0.56+/-0.008</t>
+  </si>
+  <si>
+    <t>0.501+/-0.024</t>
+  </si>
+  <si>
+    <t>0.529</t>
+  </si>
+  <si>
+    <t>0.843+/-0.002</t>
+  </si>
+  <si>
+    <t>0.784+/-0.014</t>
+  </si>
+  <si>
+    <t>0.786</t>
+  </si>
+  <si>
+    <t>8.774+/-0.856</t>
+  </si>
+  <si>
+    <t>0.662+/-0.002</t>
+  </si>
+  <si>
+    <t>0.655+/-0.0</t>
+  </si>
+  <si>
+    <t>0.955+/-0.01</t>
+  </si>
+  <si>
+    <t>0.913+/-0.044</t>
+  </si>
+  <si>
+    <t>0.919</t>
+  </si>
+  <si>
+    <t>0.118+/-0.006</t>
+  </si>
+  <si>
+    <t>0.104+/-0.014</t>
+  </si>
+  <si>
+    <t>0.108</t>
+  </si>
+  <si>
+    <t>0.783+/-0.004</t>
+  </si>
+  <si>
+    <t>0.728+/-0.014</t>
+  </si>
+  <si>
+    <t>0.726</t>
+  </si>
+  <si>
+    <t>1.192+/-0.144</t>
+  </si>
+  <si>
+    <t>0.801+/-0.0</t>
+  </si>
+  <si>
     <t>0.001+/-0.0</t>
   </si>
   <si>
-    <t>0.983+/-0.002</t>
-  </si>
-  <si>
-    <t>0.71+/-0.0</t>
-  </si>
-  <si>
-    <t>0.698</t>
-  </si>
-  <si>
-    <t>0.989+/-0.021</t>
-  </si>
-  <si>
-    <t>0.648+/-0.023</t>
-  </si>
-  <si>
-    <t>0.617</t>
-  </si>
-  <si>
-    <t>0.967+/-0.016</t>
-  </si>
-  <si>
-    <t>0.526+/-0.029</t>
-  </si>
-  <si>
-    <t>0.551</t>
-  </si>
-  <si>
-    <t>0.999+/-0.0</t>
-  </si>
-  <si>
-    <t>0.754+/-0.015</t>
-  </si>
-  <si>
-    <t>0.751</t>
-  </si>
-  <si>
-    <t>0.003+/-0.0</t>
-  </si>
-  <si>
-    <t>0.628+/-0.002</t>
-  </si>
-  <si>
-    <t>0.626+/-0.0</t>
-  </si>
-  <si>
-    <t>0.63</t>
-  </si>
-  <si>
-    <t>0.554+/-0.013</t>
-  </si>
-  <si>
-    <t>0.544+/-0.056</t>
-  </si>
-  <si>
-    <t>0.571</t>
-  </si>
-  <si>
-    <t>0.114+/-0.017</t>
-  </si>
-  <si>
-    <t>0.112+/-0.022</t>
-  </si>
-  <si>
-    <t>0.118</t>
-  </si>
-  <si>
-    <t>0.65+/-0.004</t>
-  </si>
-  <si>
-    <t>0.644+/-0.016</t>
-  </si>
-  <si>
-    <t>0.645</t>
-  </si>
-  <si>
-    <t>0.178+/-0.018</t>
-  </si>
-  <si>
-    <t>0.501+/-0.009</t>
-  </si>
-  <si>
-    <t>0.501+/-0.0</t>
-  </si>
-  <si>
-    <t>0.499</t>
-  </si>
-  <si>
-    <t>0.418+/-0.004</t>
-  </si>
-  <si>
-    <t>0.417+/-0.011</t>
-  </si>
-  <si>
-    <t>0.415</t>
-  </si>
-  <si>
-    <t>0.782+/-0.018</t>
-  </si>
-  <si>
-    <t>0.78+/-0.027</t>
-  </si>
-  <si>
-    <t>0.768</t>
-  </si>
-  <si>
-    <t>0.599+/-0.005</t>
-  </si>
-  <si>
-    <t>0.596+/-0.019</t>
-  </si>
-  <si>
-    <t>0.588</t>
-  </si>
-  <si>
-    <t>0.007+/-0.001</t>
-  </si>
-  <si>
-    <t>0.615+/-0.004</t>
-  </si>
-  <si>
-    <t>0.614+/-0.0</t>
-  </si>
-  <si>
-    <t>0.495+/-0.005</t>
-  </si>
-  <si>
-    <t>0.493+/-0.021</t>
-  </si>
-  <si>
-    <t>0.496</t>
-  </si>
-  <si>
-    <t>0.467+/-0.023</t>
-  </si>
-  <si>
-    <t>0.465+/-0.028</t>
-  </si>
-  <si>
-    <t>0.455</t>
-  </si>
-  <si>
-    <t>0.63+/-0.003</t>
-  </si>
-  <si>
-    <t>0.628+/-0.018</t>
-  </si>
-  <si>
-    <t>0.634</t>
-  </si>
-  <si>
-    <t>0.01+/-0.001</t>
-  </si>
-  <si>
-    <t>0.781+/-0.007</t>
-  </si>
-  <si>
-    <t>0.736+/-0.0</t>
-  </si>
-  <si>
-    <t>0.736</t>
-  </si>
-  <si>
-    <t>0.78+/-0.032</t>
-  </si>
-  <si>
-    <t>0.703+/-0.036</t>
-  </si>
-  <si>
-    <t>0.712</t>
-  </si>
-  <si>
-    <t>0.598+/-0.046</t>
-  </si>
-  <si>
-    <t>0.539+/-0.049</t>
-  </si>
-  <si>
-    <t>0.513</t>
-  </si>
-  <si>
-    <t>0.855+/-0.007</t>
-  </si>
-  <si>
-    <t>0.789+/-0.014</t>
-  </si>
-  <si>
-    <t>0.777</t>
-  </si>
-  <si>
-    <t>5.873+/-1.977</t>
-  </si>
-  <si>
-    <t>0.785+/-0.011</t>
-  </si>
-  <si>
-    <t>0.703+/-0.0</t>
-  </si>
-  <si>
-    <t>0.701</t>
-  </si>
-  <si>
-    <t>0.783+/-0.025</t>
-  </si>
-  <si>
-    <t>0.644+/-0.025</t>
-  </si>
-  <si>
-    <t>0.626</t>
-  </si>
-  <si>
-    <t>0.605+/-0.036</t>
-  </si>
-  <si>
-    <t>0.497+/-0.041</t>
-  </si>
-  <si>
-    <t>0.534</t>
-  </si>
-  <si>
-    <t>0.861+/-0.011</t>
-  </si>
-  <si>
-    <t>0.727+/-0.016</t>
-  </si>
-  <si>
-    <t>0.728</t>
-  </si>
-  <si>
-    <t>0.161+/-0.013</t>
-  </si>
-  <si>
-    <t>0.774+/-0.01</t>
-  </si>
-  <si>
-    <t>0.704+/-0.0</t>
-  </si>
-  <si>
-    <t>0.706</t>
-  </si>
-  <si>
-    <t>0.771+/-0.023</t>
-  </si>
-  <si>
-    <t>0.649+/-0.026</t>
-  </si>
-  <si>
-    <t>0.637</t>
-  </si>
-  <si>
-    <t>0.582+/-0.037</t>
-  </si>
-  <si>
-    <t>0.489+/-0.041</t>
-  </si>
-  <si>
-    <t>0.527</t>
-  </si>
-  <si>
-    <t>0.853+/-0.011</t>
-  </si>
-  <si>
-    <t>0.731+/-0.015</t>
-  </si>
-  <si>
-    <t>0.739</t>
-  </si>
-  <si>
-    <t>0.216+/-0.015</t>
-  </si>
-  <si>
-    <t>0.704+/-0.003</t>
-  </si>
-  <si>
-    <t>0.684+/-0.0</t>
-  </si>
-  <si>
-    <t>0.692</t>
-  </si>
-  <si>
-    <t>0.802+/-0.011</t>
-  </si>
-  <si>
-    <t>0.742+/-0.034</t>
-  </si>
-  <si>
-    <t>0.747</t>
-  </si>
-  <si>
-    <t>0.296+/-0.013</t>
-  </si>
-  <si>
-    <t>0.262+/-0.024</t>
-  </si>
-  <si>
-    <t>0.288</t>
-  </si>
-  <si>
-    <t>0.773+/-0.004</t>
-  </si>
-  <si>
-    <t>0.727+/-0.015</t>
-  </si>
-  <si>
-    <t>0.726</t>
-  </si>
-  <si>
-    <t>37.137+/-2.914</t>
-  </si>
-  <si>
-    <t>0.831+/-0.002</t>
-  </si>
-  <si>
-    <t>0.755+/-0.0</t>
-  </si>
-  <si>
-    <t>0.923+/-0.006</t>
-  </si>
-  <si>
-    <t>0.8+/-0.023</t>
-  </si>
-  <si>
-    <t>0.771</t>
-  </si>
-  <si>
-    <t>0.606+/-0.007</t>
-  </si>
-  <si>
-    <t>0.475+/-0.024</t>
-  </si>
-  <si>
-    <t>0.494</t>
-  </si>
-  <si>
-    <t>0.921+/-0.002</t>
-  </si>
-  <si>
-    <t>0.805+/-0.013</t>
-  </si>
-  <si>
-    <t>0.802</t>
-  </si>
-  <si>
-    <t>8.915+/-0.263</t>
-  </si>
-  <si>
-    <t>0.691+/-0.003</t>
-  </si>
-  <si>
-    <t>0.674+/-0.0</t>
-  </si>
-  <si>
-    <t>0.681</t>
-  </si>
-  <si>
-    <t>0.659+/-0.007</t>
-  </si>
-  <si>
-    <t>0.622+/-0.026</t>
-  </si>
-  <si>
-    <t>0.636</t>
-  </si>
-  <si>
-    <t>0.391+/-0.01</t>
-  </si>
-  <si>
-    <t>0.369+/-0.023</t>
-  </si>
-  <si>
-    <t>0.379</t>
-  </si>
-  <si>
-    <t>0.728+/-0.003</t>
-  </si>
-  <si>
-    <t>0.7+/-0.016</t>
-  </si>
-  <si>
-    <t>1.729+/-0.216</t>
-  </si>
-  <si>
-    <t>0.784+/-0.003</t>
-  </si>
-  <si>
-    <t>0.744+/-0.0</t>
-  </si>
-  <si>
-    <t>0.815+/-0.006</t>
-  </si>
-  <si>
-    <t>0.742+/-0.023</t>
-  </si>
-  <si>
-    <t>0.738</t>
-  </si>
-  <si>
-    <t>0.56+/-0.008</t>
-  </si>
-  <si>
-    <t>0.502+/-0.025</t>
-  </si>
-  <si>
-    <t>0.522</t>
-  </si>
-  <si>
-    <t>0.843+/-0.002</t>
-  </si>
-  <si>
-    <t>0.785+/-0.014</t>
-  </si>
-  <si>
-    <t>0.787</t>
-  </si>
-  <si>
-    <t>9.003+/-1.703</t>
-  </si>
-  <si>
-    <t>0.662+/-0.002</t>
-  </si>
-  <si>
-    <t>0.655+/-0.0</t>
-  </si>
-  <si>
-    <t>0.662</t>
-  </si>
-  <si>
-    <t>0.954+/-0.01</t>
-  </si>
-  <si>
-    <t>0.912+/-0.044</t>
-  </si>
-  <si>
-    <t>0.934</t>
-  </si>
-  <si>
-    <t>0.118+/-0.005</t>
-  </si>
-  <si>
-    <t>0.104+/-0.014</t>
-  </si>
-  <si>
-    <t>0.121</t>
-  </si>
-  <si>
-    <t>0.784+/-0.004</t>
-  </si>
-  <si>
-    <t>0.729+/-0.015</t>
-  </si>
-  <si>
-    <t>0.73</t>
-  </si>
-  <si>
-    <t>1.36+/-0.263</t>
-  </si>
-  <si>
-    <t>0.801+/-0.0</t>
-  </si>
-  <si>
     <t>0.994+/-0.0</t>
   </si>
   <si>
-    <t>0.813+/-0.0</t>
-  </si>
-  <si>
-    <t>0.818</t>
+    <t>0.812+/-0.0</t>
+  </si>
+  <si>
+    <t>0.814</t>
   </si>
   <si>
     <t>1.0+/-0.0</t>
   </si>
   <si>
-    <t>0.582+/-0.052</t>
-  </si>
-  <si>
-    <t>0.609</t>
+    <t>0.582+/-0.055</t>
+  </si>
+  <si>
+    <t>0.584</t>
   </si>
   <si>
     <t>0.972+/-0.001</t>
   </si>
   <si>
-    <t>0.201+/-0.027</t>
-  </si>
-  <si>
-    <t>0.229</t>
+    <t>0.199+/-0.029</t>
+  </si>
+  <si>
+    <t>0.215</t>
   </si>
   <si>
     <t>0.997+/-0.006</t>
   </si>
   <si>
-    <t>0.703+/-0.02</t>
+    <t>0.702+/-0.021</t>
+  </si>
+  <si>
+    <t>0.704</t>
   </si>
   <si>
     <t>0.004+/-0.001</t>
@@ -620,7 +632,7 @@
     <t>0.305+/-0.056</t>
   </si>
   <si>
-    <t>0.255+/-0.293</t>
+    <t>0.25+/-0.294</t>
   </si>
   <si>
     <t>0.2</t>
@@ -632,16 +644,16 @@
     <t>0.002</t>
   </si>
   <si>
-    <t>0.601+/-0.009</t>
+    <t>0.6+/-0.009</t>
   </si>
   <si>
     <t>0.586+/-0.025</t>
   </si>
   <si>
-    <t>0.612</t>
-  </si>
-  <si>
-    <t>0.218+/-0.04</t>
+    <t>0.61</t>
+  </si>
+  <si>
+    <t>0.208+/-0.03</t>
   </si>
   <si>
     <t>0.763+/-0.007</t>
@@ -650,25 +662,25 @@
     <t>0.761+/-0.0</t>
   </si>
   <si>
-    <t>0.759</t>
-  </si>
-  <si>
-    <t>0.276+/-0.015</t>
-  </si>
-  <si>
-    <t>0.263+/-0.047</t>
-  </si>
-  <si>
-    <t>0.255</t>
-  </si>
-  <si>
-    <t>0.119+/-0.027</t>
-  </si>
-  <si>
-    <t>0.113+/-0.035</t>
-  </si>
-  <si>
-    <t>0.111</t>
+    <t>0.758</t>
+  </si>
+  <si>
+    <t>0.276+/-0.014</t>
+  </si>
+  <si>
+    <t>0.264+/-0.049</t>
+  </si>
+  <si>
+    <t>0.248</t>
+  </si>
+  <si>
+    <t>0.118+/-0.027</t>
+  </si>
+  <si>
+    <t>0.113+/-0.034</t>
+  </si>
+  <si>
+    <t>0.107</t>
   </si>
   <si>
     <t>0.567+/-0.01</t>
@@ -677,10 +689,10 @@
     <t>0.556+/-0.026</t>
   </si>
   <si>
-    <t>0.581</t>
-  </si>
-  <si>
-    <t>0.009+/-0.001</t>
+    <t>0.58</t>
+  </si>
+  <si>
+    <t>0.01+/-0.003</t>
   </si>
   <si>
     <t>0.783+/-0.008</t>
@@ -689,25 +701,25 @@
     <t>0.782+/-0.0</t>
   </si>
   <si>
-    <t>0.78</t>
-  </si>
-  <si>
-    <t>0.238+/-0.033</t>
-  </si>
-  <si>
-    <t>0.229+/-0.077</t>
-  </si>
-  <si>
-    <t>0.234</t>
-  </si>
-  <si>
-    <t>0.043+/-0.018</t>
+    <t>0.779</t>
+  </si>
+  <si>
+    <t>0.241+/-0.035</t>
+  </si>
+  <si>
+    <t>0.23+/-0.079</t>
+  </si>
+  <si>
+    <t>0.194</t>
+  </si>
+  <si>
+    <t>0.044+/-0.018</t>
   </si>
   <si>
     <t>0.04+/-0.019</t>
   </si>
   <si>
-    <t>0.047</t>
+    <t>0.036</t>
   </si>
   <si>
     <t>0.567+/-0.004</t>
@@ -716,10 +728,7 @@
     <t>0.563+/-0.022</t>
   </si>
   <si>
-    <t>0.579</t>
-  </si>
-  <si>
-    <t>0.014+/-0.025</t>
+    <t>0.578</t>
   </si>
   <si>
     <t>0.849+/-0.006</t>
@@ -728,13 +737,16 @@
     <t>0.817+/-0.0</t>
   </si>
   <si>
-    <t>0.823</t>
-  </si>
-  <si>
-    <t>0.754+/-0.037</t>
-  </si>
-  <si>
-    <t>0.585+/-0.053</t>
+    <t>0.816</t>
+  </si>
+  <si>
+    <t>0.756+/-0.037</t>
+  </si>
+  <si>
+    <t>0.586+/-0.055</t>
+  </si>
+  <si>
+    <t>0.556</t>
   </si>
   <si>
     <t>0.36+/-0.045</t>
@@ -743,19 +755,19 @@
     <t>0.271+/-0.043</t>
   </si>
   <si>
-    <t>0.287</t>
-  </si>
-  <si>
-    <t>0.837+/-0.011</t>
-  </si>
-  <si>
-    <t>0.728+/-0.022</t>
-  </si>
-  <si>
-    <t>0.717</t>
-  </si>
-  <si>
-    <t>9.876+/-4.287</t>
+    <t>0.355</t>
+  </si>
+  <si>
+    <t>0.838+/-0.012</t>
+  </si>
+  <si>
+    <t>0.729+/-0.02</t>
+  </si>
+  <si>
+    <t>0.716</t>
+  </si>
+  <si>
+    <t>10.756+/-4.278</t>
   </si>
   <si>
     <t>0.878+/-0.006</t>
@@ -764,73 +776,70 @@
     <t>0.79+/-0.0</t>
   </si>
   <si>
-    <t>0.803</t>
-  </si>
-  <si>
-    <t>0.858+/-0.026</t>
+    <t>0.858+/-0.028</t>
   </si>
   <si>
     <t>0.449+/-0.044</t>
   </si>
   <si>
-    <t>0.507</t>
-  </si>
-  <si>
-    <t>0.463+/-0.034</t>
-  </si>
-  <si>
-    <t>0.245+/-0.037</t>
-  </si>
-  <si>
-    <t>0.267</t>
+    <t>0.502</t>
+  </si>
+  <si>
+    <t>0.462+/-0.035</t>
+  </si>
+  <si>
+    <t>0.244+/-0.037</t>
+  </si>
+  <si>
+    <t>0.276</t>
   </si>
   <si>
     <t>0.857+/-0.013</t>
   </si>
   <si>
-    <t>0.63+/-0.024</t>
-  </si>
-  <si>
-    <t>0.641</t>
-  </si>
-  <si>
-    <t>0.195+/-0.018</t>
+    <t>0.631+/-0.024</t>
+  </si>
+  <si>
+    <t>0.181+/-0.016</t>
   </si>
   <si>
     <t>0.866+/-0.006</t>
   </si>
   <si>
-    <t>0.792+/-0.0</t>
-  </si>
-  <si>
-    <t>0.825+/-0.033</t>
-  </si>
-  <si>
-    <t>0.452+/-0.051</t>
-  </si>
-  <si>
-    <t>0.497</t>
-  </si>
-  <si>
-    <t>0.415+/-0.039</t>
-  </si>
-  <si>
-    <t>0.229+/-0.037</t>
-  </si>
-  <si>
-    <t>0.269</t>
-  </si>
-  <si>
-    <t>0.866+/-0.013</t>
-  </si>
-  <si>
-    <t>0.645+/-0.024</t>
-  </si>
-  <si>
-    <t>0.663</t>
-  </si>
-  <si>
-    <t>0.258+/-0.018</t>
+    <t>0.791+/-0.0</t>
+  </si>
+  <si>
+    <t>0.797</t>
+  </si>
+  <si>
+    <t>0.823+/-0.032</t>
+  </si>
+  <si>
+    <t>0.45+/-0.05</t>
+  </si>
+  <si>
+    <t>0.481</t>
+  </si>
+  <si>
+    <t>0.419+/-0.037</t>
+  </si>
+  <si>
+    <t>0.233+/-0.038</t>
+  </si>
+  <si>
+    <t>0.28</t>
+  </si>
+  <si>
+    <t>0.867+/-0.012</t>
+  </si>
+  <si>
+    <t>0.645+/-0.025</t>
+  </si>
+  <si>
+    <t>0.66</t>
+  </si>
+  <si>
+    <t>0.242+/-0.019</t>
   </si>
   <si>
     <t>0.807+/-0.001</t>
@@ -842,10 +851,10 @@
     <t>0.804</t>
   </si>
   <si>
-    <t>0.903+/-0.015</t>
-  </si>
-  <si>
-    <t>0.804+/-0.194</t>
+    <t>0.902+/-0.016</t>
+  </si>
+  <si>
+    <t>0.795+/-0.195</t>
   </si>
   <si>
     <t>0.875</t>
@@ -863,16 +872,13 @@
     <t>0.802+/-0.007</t>
   </si>
   <si>
-    <t>0.681+/-0.021</t>
-  </si>
-  <si>
-    <t>0.688</t>
-  </si>
-  <si>
-    <t>35.192+/-2.481</t>
-  </si>
-  <si>
-    <t>0.83+/-0.005</t>
+    <t>0.68+/-0.021</t>
+  </si>
+  <si>
+    <t>32.912+/-3.666</t>
+  </si>
+  <si>
+    <t>0.831+/-0.005</t>
   </si>
   <si>
     <t>0.809+/-0.0</t>
@@ -881,49 +887,52 @@
     <t>0.813</t>
   </si>
   <si>
-    <t>0.993+/-0.003</t>
-  </si>
-  <si>
-    <t>0.832+/-0.108</t>
-  </si>
-  <si>
-    <t>0.902</t>
-  </si>
-  <si>
-    <t>0.147+/-0.025</t>
-  </si>
-  <si>
-    <t>0.05+/-0.018</t>
-  </si>
-  <si>
-    <t>0.067</t>
+    <t>0.994+/-0.003</t>
+  </si>
+  <si>
+    <t>0.835+/-0.105</t>
+  </si>
+  <si>
+    <t>0.921</t>
+  </si>
+  <si>
+    <t>0.147+/-0.024</t>
+  </si>
+  <si>
+    <t>0.051+/-0.018</t>
+  </si>
+  <si>
+    <t>0.064</t>
   </si>
   <si>
     <t>0.942+/-0.002</t>
   </si>
   <si>
-    <t>0.733+/-0.02</t>
-  </si>
-  <si>
-    <t>12.747+/-3.76</t>
+    <t>0.733+/-0.021</t>
+  </si>
+  <si>
+    <t>0.743</t>
+  </si>
+  <si>
+    <t>12.212+/-1.6</t>
   </si>
   <si>
     <t>0.803+/-0.001</t>
   </si>
   <si>
-    <t>0.667+/-0.052</t>
-  </si>
-  <si>
-    <t>0.41+/-0.225</t>
-  </si>
-  <si>
-    <t>0.375</t>
+    <t>0.667+/-0.057</t>
+  </si>
+  <si>
+    <t>0.422+/-0.217</t>
+  </si>
+  <si>
+    <t>0.333</t>
   </si>
   <si>
     <t>0.02+/-0.005</t>
   </si>
   <si>
-    <t>0.011+/-0.007</t>
+    <t>0.012+/-0.007</t>
   </si>
   <si>
     <t>0.005</t>
@@ -935,10 +944,7 @@
     <t>0.625+/-0.021</t>
   </si>
   <si>
-    <t>0.656</t>
-  </si>
-  <si>
-    <t>2.362+/-0.357</t>
+    <t>2.407+/-0.263</t>
   </si>
   <si>
     <t>0.827+/-0.002</t>
@@ -947,34 +953,31 @@
     <t>0.815</t>
   </si>
   <si>
-    <t>0.939+/-0.017</t>
-  </si>
-  <si>
-    <t>0.68+/-0.099</t>
-  </si>
-  <si>
-    <t>0.757</t>
-  </si>
-  <si>
-    <t>0.136+/-0.011</t>
-  </si>
-  <si>
-    <t>0.074+/-0.02</t>
-  </si>
-  <si>
-    <t>0.096</t>
-  </si>
-  <si>
-    <t>0.829+/-0.006</t>
-  </si>
-  <si>
-    <t>0.701+/-0.022</t>
-  </si>
-  <si>
-    <t>0.735</t>
-  </si>
-  <si>
-    <t>9.195+/-0.691</t>
+    <t>0.938+/-0.016</t>
+  </si>
+  <si>
+    <t>0.685+/-0.093</t>
+  </si>
+  <si>
+    <t>0.825</t>
+  </si>
+  <si>
+    <t>0.137+/-0.011</t>
+  </si>
+  <si>
+    <t>0.075+/-0.019</t>
+  </si>
+  <si>
+    <t>0.085</t>
+  </si>
+  <si>
+    <t>0.829+/-0.005</t>
+  </si>
+  <si>
+    <t>0.734</t>
+  </si>
+  <si>
+    <t>8.239+/-0.664</t>
   </si>
   <si>
     <t>0.802+/-0.0</t>
@@ -986,13 +989,13 @@
     <t>0.756+/-0.005</t>
   </si>
   <si>
-    <t>0.659+/-0.022</t>
-  </si>
-  <si>
-    <t>0.683</t>
-  </si>
-  <si>
-    <t>1.095+/-0.119</t>
+    <t>0.658+/-0.022</t>
+  </si>
+  <si>
+    <t>0.677</t>
+  </si>
+  <si>
+    <t>1.036+/-0.119</t>
   </si>
 </sst>
 </file>
@@ -1417,28 +1420,28 @@
         <v>72</v>
       </c>
       <c r="G2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="N2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1461,28 +1464,28 @@
         <v>73</v>
       </c>
       <c r="G3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1502,31 +1505,31 @@
         <v>61</v>
       </c>
       <c r="F4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K4" t="s">
+        <v>139</v>
+      </c>
+      <c r="L4" t="s">
+        <v>152</v>
+      </c>
+      <c r="M4" t="s">
+        <v>164</v>
+      </c>
+      <c r="N4" t="s">
         <v>38</v>
-      </c>
-      <c r="G4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I4" t="s">
-        <v>112</v>
-      </c>
-      <c r="J4" t="s">
-        <v>125</v>
-      </c>
-      <c r="K4" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" t="s">
-        <v>150</v>
-      </c>
-      <c r="M4" t="s">
-        <v>128</v>
-      </c>
-      <c r="N4" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1546,31 +1549,31 @@
         <v>62</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M5" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="N5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1590,31 +1593,31 @@
         <v>63</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M6" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="N6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1634,31 +1637,31 @@
         <v>64</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L7" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="M7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="N7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1678,31 +1681,31 @@
         <v>65</v>
       </c>
       <c r="F8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="N8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1722,31 +1725,31 @@
         <v>66</v>
       </c>
       <c r="F9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K9" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M9" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="N9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1766,31 +1769,31 @@
         <v>67</v>
       </c>
       <c r="F10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K10" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M10" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="N10" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1810,31 +1813,31 @@
         <v>68</v>
       </c>
       <c r="F11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M11" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="N11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1854,31 +1857,31 @@
         <v>69</v>
       </c>
       <c r="F12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K12" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M12" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="N12" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1898,31 +1901,31 @@
         <v>70</v>
       </c>
       <c r="F13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K13" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L13" t="s">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="M13" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="N13" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1942,31 +1945,31 @@
         <v>71</v>
       </c>
       <c r="F14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K14" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L14" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M14" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="N14" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -2028,43 +2031,43 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="H2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="I2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J2" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="K2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="M2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="N2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -2072,43 +2075,43 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G3" t="s">
+        <v>239</v>
+      </c>
+      <c r="H3" t="s">
+        <v>252</v>
+      </c>
+      <c r="I3" t="s">
+        <v>263</v>
+      </c>
+      <c r="J3" t="s">
+        <v>276</v>
+      </c>
+      <c r="K3" t="s">
+        <v>288</v>
+      </c>
+      <c r="L3" t="s">
+        <v>202</v>
+      </c>
+      <c r="M3" t="s">
+        <v>288</v>
+      </c>
+      <c r="N3" t="s">
         <v>187</v>
-      </c>
-      <c r="D3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F3" t="s">
-        <v>223</v>
-      </c>
-      <c r="G3" t="s">
-        <v>236</v>
-      </c>
-      <c r="H3" t="s">
-        <v>248</v>
-      </c>
-      <c r="I3" t="s">
-        <v>261</v>
-      </c>
-      <c r="J3" t="s">
-        <v>273</v>
-      </c>
-      <c r="K3" t="s">
-        <v>286</v>
-      </c>
-      <c r="L3" t="s">
-        <v>198</v>
-      </c>
-      <c r="M3" t="s">
-        <v>286</v>
-      </c>
-      <c r="N3" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -2116,43 +2119,43 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C4" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D4" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E4" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F4" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="G4" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H4" t="s">
-        <v>249</v>
+        <v>148</v>
       </c>
       <c r="I4" t="s">
-        <v>199</v>
+        <v>264</v>
       </c>
       <c r="J4" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="K4" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L4" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="N4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -2163,40 +2166,40 @@
         <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D5" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E5" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F5" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="G5" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H5" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="I5" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="J5" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="K5" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L5" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="M5" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="N5" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -2207,37 +2210,37 @@
         <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D6" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E6" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F6" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G6" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H6" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I6" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="J6" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="K6" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L6" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="M6" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="N6" t="s">
         <v>28</v>
@@ -2251,37 +2254,37 @@
         <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>243</v>
       </c>
       <c r="H7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="I7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="J7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="K7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="M7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="N7" t="s">
         <v>29</v>
@@ -2295,40 +2298,40 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D8" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E8" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F8" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="G8" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H8" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="I8" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="J8" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="K8" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L8" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="M8" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="N8" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2339,37 +2342,37 @@
         <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D9" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E9" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F9" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G9" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="H9" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="I9" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="J9" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="K9" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L9" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="M9" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="N9" t="s">
         <v>28</v>
@@ -2383,37 +2386,37 @@
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D10" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E10" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F10" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G10" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="H10" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="I10" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="J10" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="K10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L10" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="M10" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="N10" t="s">
         <v>29</v>
@@ -2427,40 +2430,40 @@
         <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D11" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="E11" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F11" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G11" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="H11" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="I11" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="J11" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K11" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L11" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="M11" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="N11" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2471,40 +2474,40 @@
         <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D12" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E12" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F12" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="G12" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="H12" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="I12" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="J12" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="K12" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L12" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="M12" t="s">
-        <v>317</v>
+        <v>199</v>
       </c>
       <c r="N12" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2515,40 +2518,40 @@
         <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>200</v>
       </c>
       <c r="D13" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E13" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F13" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="G13" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="H13" t="s">
-        <v>258</v>
+        <v>116</v>
       </c>
       <c r="I13" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="J13" t="s">
-        <v>283</v>
+        <v>126</v>
       </c>
       <c r="K13" t="s">
-        <v>128</v>
+        <v>298</v>
       </c>
       <c r="L13" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="M13" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N13" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -2556,43 +2559,43 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>188</v>
       </c>
       <c r="C14" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D14" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E14" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F14" t="s">
-        <v>234</v>
+        <v>84</v>
       </c>
       <c r="G14" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="H14" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I14" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="J14" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="K14" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="L14" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M14" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N14" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
